--- a/results/test2_results_comparison.xlsx
+++ b/results/test2_results_comparison.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test 2 Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Test 2 Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,25 +496,20 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>summac</t>
+          <t>faithfulness</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>qafacteval</t>
+          <t>overall</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>overall</t>
+          <t>n_cases</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>n_cases</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>n_successful</t>
         </is>
@@ -530,49 +525,46 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.436</v>
+        <v>0.418</v>
       </c>
       <c r="D2" t="n">
-        <v>0.484</v>
+        <v>0.465</v>
       </c>
       <c r="E2" t="n">
-        <v>0.066</v>
+        <v>0.13</v>
       </c>
       <c r="F2" t="n">
-        <v>0.154</v>
+        <v>0.276</v>
       </c>
       <c r="G2" t="n">
-        <v>0.057</v>
+        <v>0.095</v>
       </c>
       <c r="H2" t="n">
-        <v>0.064</v>
+        <v>0.129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001</v>
+        <v>0.024</v>
       </c>
       <c r="J2" t="n">
-        <v>0.052</v>
+        <v>0.125</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.121</v>
+        <v>-0.057</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.255</v>
       </c>
       <c r="O2" t="n">
-        <v>0.121</v>
+        <v>25</v>
       </c>
       <c r="P2" t="n">
         <v>24</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -585,49 +577,46 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.425</v>
+        <v>0.408</v>
       </c>
       <c r="D3" t="n">
-        <v>0.492</v>
+        <v>0.472</v>
       </c>
       <c r="E3" t="n">
-        <v>0.056</v>
+        <v>0.144</v>
       </c>
       <c r="F3" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.134</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.055</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J3" t="n">
-        <v>0.047</v>
+        <v>0.147</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.133</v>
+        <v>-0.075</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.528</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.528</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.256</v>
       </c>
       <c r="O3" t="n">
-        <v>0.11</v>
+        <v>25</v>
       </c>
       <c r="P3" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -640,49 +629,46 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.373</v>
+        <v>0.358</v>
       </c>
       <c r="D4" t="n">
-        <v>0.425</v>
+        <v>0.408</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05</v>
+        <v>0.119</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>0.255</v>
       </c>
       <c r="G4" t="n">
-        <v>0.053</v>
+        <v>0.095</v>
       </c>
       <c r="H4" t="n">
-        <v>0.055</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="J4" t="n">
-        <v>0.033</v>
+        <v>0.104</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.112</v>
+        <v>-0.003</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.259</v>
       </c>
       <c r="O4" t="n">
-        <v>0.099</v>
+        <v>25</v>
       </c>
       <c r="P4" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -695,49 +681,46 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.346</v>
+        <v>0.332</v>
       </c>
       <c r="D5" t="n">
-        <v>0.373</v>
+        <v>0.358</v>
       </c>
       <c r="E5" t="n">
-        <v>0.079</v>
+        <v>0.145</v>
       </c>
       <c r="F5" t="n">
-        <v>0.18</v>
+        <v>0.304</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="H5" t="n">
-        <v>0.076</v>
+        <v>0.141</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001</v>
+        <v>0.03</v>
       </c>
       <c r="J5" t="n">
-        <v>0.059</v>
+        <v>0.14</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.095</v>
+        <v>-0.021</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.501</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.501</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.239</v>
       </c>
       <c r="O5" t="n">
-        <v>0.107</v>
+        <v>25</v>
       </c>
       <c r="P5" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -750,49 +733,46 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.33</v>
+        <v>0.317</v>
       </c>
       <c r="D6" t="n">
-        <v>0.372</v>
+        <v>0.357</v>
       </c>
       <c r="E6" t="n">
-        <v>0.113</v>
+        <v>0.192</v>
       </c>
       <c r="F6" t="n">
-        <v>0.263</v>
+        <v>0.394</v>
       </c>
       <c r="G6" t="n">
-        <v>0.102</v>
+        <v>0.128</v>
       </c>
       <c r="H6" t="n">
-        <v>0.095</v>
+        <v>0.151</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01</v>
+        <v>0.063</v>
       </c>
       <c r="J6" t="n">
-        <v>0.096</v>
+        <v>0.222</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.05</v>
+        <v>-0.003</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.484</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.484</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.249</v>
       </c>
       <c r="O6" t="n">
-        <v>0.129</v>
+        <v>25</v>
       </c>
       <c r="P6" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
